--- a/sentences/affordance/Affordance/AffordancePosstream.xlsx
+++ b/sentences/affordance/Affordance/AffordancePosstream.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2572921B-874A-44AA-B7DE-B5236E2A2367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F50CC1-B2B8-40EB-944A-446A286F2C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,70 +73,70 @@
     <t>Therefore, I really would like you to help me if needed.</t>
   </si>
   <si>
-    <t>mid “Taken together, I must say you are kind of a friend to me.”</t>
-  </si>
-  <si>
-    <t>hig “Taken together, I certainly have warm feelings towards you.”</t>
-  </si>
-  <si>
     <t>Involvement</t>
   </si>
   <si>
     <t>Taken together, I am warming up to you.</t>
   </si>
   <si>
-    <t>hig “Notwithstanding, I feel detached from you just the same.”</t>
-  </si>
-  <si>
-    <t>mid “Nonetheless, I would like to keep some healthy distance in our relationship as well.”</t>
-  </si>
-  <si>
-    <t>low “But to be honest, it is true that I’m still a little cold inside and have my doubts as well.”</t>
-  </si>
-  <si>
     <t>Distance</t>
   </si>
   <si>
     <t>As a friend, you know, in case of emergency, I’d love you to help me!</t>
   </si>
   <si>
-    <t>low “We have a few things in common and I wonder if one day you may want to help me?”</t>
-  </si>
-  <si>
-    <t>mid “Between us, we share quite a number of things and it would be great if you helped me if need be.”</t>
-  </si>
-  <si>
-    <t>hig “You and I are much the same and it would be great to help each other out, always.”</t>
-  </si>
-  <si>
     <t>SimilarityInUI</t>
   </si>
   <si>
     <t>UI</t>
   </si>
   <si>
-    <t>low “In addition, we have some commonalities, which makes me sympathetic towards you somehow.”</t>
-  </si>
-  <si>
-    <t>mid “Additionally, we share certain values, which increases me feeling friendly towards you.”</t>
-  </si>
-  <si>
-    <t>hig “Moreover, that we are cut from the same cloth is strengthening the bond I feel between us.”</t>
-  </si>
-  <si>
-    <t>hig “Basically, you leave me cold although I have to admit we share some commonalities.”</t>
-  </si>
-  <si>
-    <t>mid “I’ll keep my distance but that we are alike makes me soften up a little, I must say.”</t>
-  </si>
-  <si>
-    <t>low “I do have some reservations about you but you’re also much like me, so, you know, you’re not half bad.”</t>
-  </si>
-  <si>
     <t>SimilarityInInvolvement</t>
   </si>
   <si>
     <t>SimilarityInDistance</t>
+  </si>
+  <si>
+    <t>Taken together, I must say you are kind of a friend to me.</t>
+  </si>
+  <si>
+    <t>Taken together, I certainly have warm feelings towards you.</t>
+  </si>
+  <si>
+    <t>Notwithstanding, I feel detached from you just the same.</t>
+  </si>
+  <si>
+    <t>Nonetheless, I would like to keep some healthy distance in our relationship as well.</t>
+  </si>
+  <si>
+    <t>But to be honest, it is true that I’m still a little cold inside and have my doubts as well.</t>
+  </si>
+  <si>
+    <t>We have a few things in common and I wonder if one day you may want to help me?</t>
+  </si>
+  <si>
+    <t>Between us, we share quite a number of things and it would be great if you helped me if need be.</t>
+  </si>
+  <si>
+    <t>You and I are much the same and it would be great to help each other out, always.</t>
+  </si>
+  <si>
+    <t>In addition, we have some commonalities, which makes me sympathetic towards you somehow.</t>
+  </si>
+  <si>
+    <t>Additionally, we share certain values, which increases me feeling friendly towards you.</t>
+  </si>
+  <si>
+    <t>Moreover, that we are cut from the same cloth is strengthening the bond I feel between us.</t>
+  </si>
+  <si>
+    <t>Basically, you leave me cold although I have to admit we share some commonalities.</t>
+  </si>
+  <si>
+    <t>I’ll keep my distance but that we are alike makes me soften up a little, I must say.</t>
+  </si>
+  <si>
+    <t>I do have some reservations about you but you’re also much like me, so, you know, you’re not half bad.</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -555,6 +555,7 @@
     <col min="3" max="3" width="45.1796875" customWidth="1"/>
     <col min="4" max="4" width="40.6328125" customWidth="1"/>
     <col min="5" max="5" width="44.7265625" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
@@ -571,22 +572,22 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
@@ -606,19 +607,19 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
@@ -638,19 +639,19 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
@@ -667,22 +668,22 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
